--- a/src/main/java/com/company/resources/Results.xlsx
+++ b/src/main/java/com/company/resources/Results.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -63,44 +63,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>40.0</v>
+        <v>44.0</v>
       </c>
       <c r="B1" t="n">
-        <v>89.0</v>
+        <v>41.0</v>
       </c>
       <c r="C1" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="D1" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91.0</v>
+        <v>107.0</v>
       </c>
       <c r="B2" t="n">
-        <v>194.0</v>
+        <v>107.0</v>
       </c>
       <c r="C2" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>64.0</v>
+        <v>91.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>142.0</v>
+        <v>170.0</v>
       </c>
       <c r="B3" t="n">
-        <v>299.0</v>
+        <v>173.0</v>
       </c>
       <c r="C3" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>103.0</v>
+        <v>148.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/company/resources/Results.xlsx
+++ b/src/main/java/com/company/resources/Results.xlsx
@@ -63,35 +63,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>44.0</v>
+        <v>58.0</v>
       </c>
       <c r="B1" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="C1" t="n">
-        <v>34.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>107.0</v>
+        <v>142.0</v>
       </c>
       <c r="B2" t="n">
-        <v>107.0</v>
+        <v>115.0</v>
       </c>
       <c r="C2" t="n">
-        <v>91.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>170.0</v>
+        <v>226.0</v>
       </c>
       <c r="B3" t="n">
-        <v>173.0</v>
+        <v>187.0</v>
       </c>
       <c r="C3" t="n">
-        <v>148.0</v>
+        <v>190.0</v>
       </c>
     </row>
   </sheetData>
